--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H2">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I2">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J2">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>759.4916374425708</v>
+        <v>119.37139854352</v>
       </c>
       <c r="R2">
-        <v>6835.424736983137</v>
+        <v>1074.34258689168</v>
       </c>
       <c r="S2">
-        <v>0.1637707671058794</v>
+        <v>0.03625833699945747</v>
       </c>
       <c r="T2">
-        <v>0.1637707671058794</v>
+        <v>0.03625833699945746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H3">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I3">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J3">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>1289.356048416081</v>
+        <v>1137.264853472656</v>
       </c>
       <c r="R3">
-        <v>11604.20443574473</v>
+        <v>10235.3836812539</v>
       </c>
       <c r="S3">
-        <v>0.2780265360560654</v>
+        <v>0.3454372891494336</v>
       </c>
       <c r="T3">
-        <v>0.2780265360560654</v>
+        <v>0.3454372891494335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H4">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I4">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J4">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>554.6152643209734</v>
+        <v>489.19338307408</v>
       </c>
       <c r="R4">
-        <v>4991.53737888876</v>
+        <v>4402.74044766672</v>
       </c>
       <c r="S4">
-        <v>0.1195928471211693</v>
+        <v>0.1485895177389421</v>
       </c>
       <c r="T4">
-        <v>0.1195928471211693</v>
+        <v>0.1485895177389421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>436.0489890824587</v>
+        <v>77.70050006851332</v>
       </c>
       <c r="R5">
-        <v>3924.440901742128</v>
+        <v>699.3045006166199</v>
       </c>
       <c r="S5">
-        <v>0.09402615370228792</v>
+        <v>0.02360105478267817</v>
       </c>
       <c r="T5">
-        <v>0.09402615370228794</v>
+        <v>0.02360105478267817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>740.2614772327872</v>
@@ -818,10 +818,10 @@
         <v>6662.353295095086</v>
       </c>
       <c r="S6">
-        <v>0.1596241275197874</v>
+        <v>0.2248499258340946</v>
       </c>
       <c r="T6">
-        <v>0.1596241275197874</v>
+        <v>0.2248499258340945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>318.4227625615533</v>
@@ -880,10 +880,10 @@
         <v>2865.80486305398</v>
       </c>
       <c r="S7">
-        <v>0.06866216495059446</v>
+        <v>0.09671897937130912</v>
       </c>
       <c r="T7">
-        <v>0.06866216495059448</v>
+        <v>0.09671897937130911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>157.3360441104498</v>
+        <v>28.03604551843555</v>
       </c>
       <c r="R8">
-        <v>1416.024396994048</v>
+        <v>252.32440966592</v>
       </c>
       <c r="S8">
-        <v>0.03392669960677641</v>
+        <v>0.008515778477446246</v>
       </c>
       <c r="T8">
-        <v>0.03392669960677642</v>
+        <v>0.008515778477446244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>267.1025856068196</v>
@@ -1004,10 +1004,10 @@
         <v>2403.923270461376</v>
       </c>
       <c r="S9">
-        <v>0.05759588807072329</v>
+        <v>0.08113078744593658</v>
       </c>
       <c r="T9">
-        <v>0.0575958880707233</v>
+        <v>0.08113078744593655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>114.8939203404089</v>
@@ -1066,10 +1066,10 @@
         <v>1034.04528306368</v>
       </c>
       <c r="S10">
-        <v>0.02477481586671632</v>
+        <v>0.03489833020070208</v>
       </c>
       <c r="T10">
-        <v>0.02477481586671633</v>
+        <v>0.03489833020070206</v>
       </c>
     </row>
   </sheetData>
